--- a/analysis/Results.xlsx
+++ b/analysis/Results.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>RandomForest</t>
   </si>
@@ -47,15 +48,39 @@
   <si>
     <t>Raw examples</t>
   </si>
+  <si>
+    <t>Without prepositions and verbs</t>
+  </si>
+  <si>
+    <t>Without prepositions and nouns</t>
+  </si>
+  <si>
+    <t>Without verbs and nous</t>
+  </si>
+  <si>
+    <t>Without pronouns and verbs</t>
+  </si>
+  <si>
+    <t>Without pronouns and nouns</t>
+  </si>
+  <si>
+    <t>Without pronounts and prepositions</t>
+  </si>
+  <si>
+    <t>J48</t>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +90,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,16 +121,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -111,6 +145,3676 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Resultado</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de análise do algoritmo Random Forest</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correctly Classified Instances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Raw examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Stopwords</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Without nouns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Without prepositions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Without verbs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Without pronouns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Without prepositions and verbs</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Without prepositions and nouns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Without verbs and nous</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Without pronouns and verbs</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Without pronouns and nouns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Without pronounts and prepositions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.79279299999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74099099999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79729700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81081099999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.795045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78603599999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77702699999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79729699999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.781532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77702699999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75900899999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80180200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C45-48E9-ABD3-0AE5E386F1A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incorrectly Classified Instances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Raw examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Stopwords</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Without nouns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Without prepositions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Without verbs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Without pronouns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Without prepositions and verbs</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Without prepositions and nouns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Without verbs and nous</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Without pronouns and verbs</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Without pronouns and nouns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Without pronounts and prepositions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.20720700000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25900900000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20270299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18918900000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.204955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21396400000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22297300000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20270300000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.218468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22297300000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24099100000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19819799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C45-48E9-ABD3-0AE5E386F1A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="399184688"/>
+        <c:axId val="401665168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="399184688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401665168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401665168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399184688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Resultado de análise do algoritmo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> J48</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correctly Classified Instances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$A$18:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Raw examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Stopwords</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Without nouns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Without prepositions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Without verbs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Without pronouns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Without prepositions and verbs</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Without prepositions and nouns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Without verbs and nous</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Without pronouns and verbs</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Without pronouns and nouns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Without pronounts and prepositions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$B$18:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54729700000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66216200000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68468499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70270299999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65315299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60810799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65090099999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65090099999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60360400000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63288299999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64639599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2F5-4A1C-9D32-05FC0F81F8FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incorrectly Classified Instances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$A$18:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Raw examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Stopwords</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Without nouns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Without prepositions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Without verbs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Without pronouns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Without prepositions and verbs</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Without prepositions and nouns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Without verbs and nous</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Without pronouns and verbs</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Without pronouns and nouns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Without pronounts and prepositions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$18:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.33333299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45270299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33783799999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31531500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29729700000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34684700000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39189200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34909900000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34909900000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39639599999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36711700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35360400000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B2F5-4A1C-9D32-05FC0F81F8FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="462738976"/>
+        <c:axId val="401657824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="462738976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401657824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401657824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462738976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Resultado</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de análise do algoritmo Bayes Ingênuo</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correctly Classified Instances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$A$33:$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Raw examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Stopwords</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Without nouns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Without prepositions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Without verbs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Without pronouns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Without prepositions and verbs</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Without prepositions and nouns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Without verbs and nous</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Without pronouns and verbs</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Without pronouns and nouns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Without pronounts and prepositions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$B$33:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.81306299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81756799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81756799999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80855900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80630599999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80630599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80855900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80180200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75504499999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80630599999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80855900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3345-483C-8581-24BD7AD325C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Incorrectly Classified Instances</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$A$33:$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Raw examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without Stopwords</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Without nouns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Without prepositions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Without verbs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Without pronouns</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Without prepositions and verbs</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Without prepositions and nouns</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Without verbs and nous</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Without pronouns and verbs</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Without pronouns and nouns</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Without pronounts and prepositions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$33:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.18693700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18243200000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18243200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19144099999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19369400000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19369400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19144099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19819799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24495500000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19369400000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19144099999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3345-483C-8581-24BD7AD325C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="404890224"/>
+        <c:axId val="516548448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="404890224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516548448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516548448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404890224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E3CD4F-B941-41E9-8A26-DD21BBF10523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E19FC9-3CB7-4AB8-BE8E-DBC6FA3F680D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0C0C12-1658-4D68-9848-7ADA8447203C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,15 +4080,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C44" sqref="A32:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
@@ -406,71 +4110,478 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.79729700000000003</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.20270299999999999</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="B3" s="2">
+        <v>0.79279299999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <f>1-B3</f>
+        <v>0.20720700000000003</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.76351400000000003</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.236486</v>
+      <c r="B4" s="2">
+        <v>0.74099099999999996</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C14" si="0">1-B4</f>
+        <v>0.25900900000000004</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.75252300000000005</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.22747700000000001</v>
+      <c r="B5" s="2">
+        <v>0.79729700000000003</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20270299999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.79054100000000005</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.20945900000000001</v>
+      <c r="B6" s="2">
+        <v>0.81081099999999995</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18918900000000005</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.76126099999999997</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.23873900000000001</v>
+      <c r="B7" s="2">
+        <v>0.795045</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.204955</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.79054100000000005</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.20945900000000001</v>
+      <c r="B8" s="2">
+        <v>0.78603599999999996</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21396400000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.77702699999999991</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22297300000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.79729699999999992</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20270300000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.781532</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.218468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.77702699999999991</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22297300000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.75900899999999993</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24099100000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.80180200000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19819799999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <f>1-B18</f>
+        <v>0.33333299999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.54729700000000003</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:C29" si="1">1-B19</f>
+        <v>0.45270299999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.66216200000000003</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33783799999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.68468499999999999</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31531500000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.70270299999999997</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.29729700000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.65315299999999998</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34684700000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.60810799999999998</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39189200000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.65090099999999995</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34909900000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.65090099999999995</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34909900000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.60360400000000003</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39639599999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.63288299999999997</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36711700000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.64639599999999997</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35360400000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.81306299999999998</v>
+      </c>
+      <c r="C33" s="2">
+        <f>1-B33</f>
+        <v>0.18693700000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.81756799999999996</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:C44" si="2">1-B34</f>
+        <v>0.18243200000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.81756799999999996</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18243200000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.80855900000000003</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19144099999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.80630599999999997</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19369400000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.80630599999999997</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19369400000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.80855900000000003</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19144099999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.79954999999999998</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20045000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.80180200000000001</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19819799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.75504499999999997</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24495500000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.80630599999999997</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19369400000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.80855900000000003</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19144099999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A02B7B-19F6-4074-A2E3-60462BEDDFD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>